--- a/biology/Zoologie/Congridae/Congridae.xlsx
+++ b/biology/Zoologie/Congridae/Congridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Congridae comprend des poissons téléostéens marins à nageoires rayonnées réduites, dont la plupart des espèces sont communément appelées « congres » ou « anguilles ». Elle est composée d'une trentaine de genres et de plus de 190 espèces[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Congridae comprend des poissons téléostéens marins à nageoires rayonnées réduites, dont la plupart des espèces sont communément appelées « congres » ou « anguilles ». Elle est composée d'une trentaine de genres et de plus de 190 espèces.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces poissons ont un corps anguiliforme dépourvu d'écailles. Ils ont généralement des nageoires pectorales, contrairement à d'autres familles de cet ordre. Ils possèdent entre 8 et 22 rayons branchiostégaux, et entre 105 et 225 vertèbres[2]. 
-Ce sont en grande partie des poissons d'eaux tempérées ou profondes, même s'il existe des espèces tropicales côtières ; on en trouve des représentants dans les trois principaux bassins océaniques. Les congres se nourrissent de petits poissons et de crustacés, principalement la nuit ; certaines espèces sont cependant planctonivores (les « anguilles jardinières », qui vivent en colonies dans des trous sur les fonds sableux). La reproduction ne semble pas donner lieu à des migrations, contrairement aux vraies anguilles, par exemple. De nombreuses espèces sont exploitées commercialement[2]. 
-Cette famille semble être apparue au Crétacé supérieur[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces poissons ont un corps anguiliforme dépourvu d'écailles. Ils ont généralement des nageoires pectorales, contrairement à d'autres familles de cet ordre. Ils possèdent entre 8 et 22 rayons branchiostégaux, et entre 105 et 225 vertèbres. 
+Ce sont en grande partie des poissons d'eaux tempérées ou profondes, même s'il existe des espèces tropicales côtières ; on en trouve des représentants dans les trois principaux bassins océaniques. Les congres se nourrissent de petits poissons et de crustacés, principalement la nuit ; certaines espèces sont cependant planctonivores (les « anguilles jardinières », qui vivent en colonies dans des trous sur les fonds sableux). La reproduction ne semble pas donner lieu à des migrations, contrairement aux vraies anguilles, par exemple. De nombreuses espèces sont exploitées commercialement. 
+Cette famille semble être apparue au Crétacé supérieur. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (31 juillet 2015)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (31 juillet 2015) :
 sous-famille Bathymyrinae Böhlke, 1949
 genre Ariosoma Swainson, 1838
 genre Bathymyrus Alcock, 1889
